--- a/datasets/contents.xlsx
+++ b/datasets/contents.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22725" windowHeight="10425"/>
+    <workbookView windowWidth="22725" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Topic</t>
   </si>
@@ -128,6 +129,21 @@
   </si>
   <si>
     <t>Hyperparameter tuning</t>
+  </si>
+  <si>
+    <t>RStudio, Package installation, Projects, Version control with Github, Data types, Subsetting, Functions</t>
+  </si>
+  <si>
+    <t>Control structures, Loops and apply family, Read and write data, Tidyverse, Intro to manipulation with `dplyr</t>
+  </si>
+  <si>
+    <t>[Data wrangling (cont.)](ws_3.html)</t>
+  </si>
+  <si>
+    <t>Functional programming, merging data</t>
+  </si>
+  <si>
+    <t>Creating Blogs, Articles, Presentations</t>
   </si>
 </sst>
 </file>
@@ -135,12 +151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,24 +165,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -174,29 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,36 +218,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +255,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,11 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,25 +324,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,19 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,31 +462,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,97 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +515,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,23 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,57 +611,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,153 +620,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,13 +1093,14 @@
   <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="54.75" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1253,4 +1279,86 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datasets/contents.xlsx
+++ b/datasets/contents.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Topic</t>
   </si>
@@ -131,13 +131,19 @@
     <t>Hyperparameter tuning</t>
   </si>
   <si>
+    <t>Introduction to R [HTML](ws_1.html) [PDF](ws_1.pdf) [Rmd](ws_1.Rmd)  [Practice](practice_1.html)</t>
+  </si>
+  <si>
     <t>RStudio, Package installation, Projects, Version control with Github, Data types, Subsetting, Functions</t>
   </si>
   <si>
+    <t>Data wrangling, control structures and loops [HTML](ws_2.html) [PDF](ws_2.pdf) [Rmd](ws_2.Rmd)</t>
+  </si>
+  <si>
     <t>Control structures, Loops and apply family, Read and write data, Tidyverse, Intro to manipulation with `dplyr</t>
   </si>
   <si>
-    <t>[Data wrangling (cont.)](ws_3.html)</t>
+    <t>Data wrangling (cont.) [HTML](ws_3.html)</t>
   </si>
   <si>
     <t>Functional programming, merging data</t>
@@ -1292,36 +1298,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1329,7 +1338,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
